--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/authentication_method.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/authentication_method.xlsx
@@ -59,10 +59,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -157,7 +156,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,7 +184,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/authentication_method.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/authentication_method.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">PWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">OTP</t>
@@ -184,7 +187,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -216,9 +219,8 @@
       <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -226,14 +228,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -241,14 +242,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,14 +256,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -271,19 +270,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -291,69 +289,64 @@
       <c r="C7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
